--- a/data/case1/13/Qlm2_13.xlsx
+++ b/data/case1/13/Qlm2_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.095173910376558979</v>
+        <v>-0.08840041403804122</v>
       </c>
       <c r="B1" s="0">
-        <v>0.09514669853045632</v>
+        <v>0.088384099566617635</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.073046824761532569</v>
+        <v>-0.079567331825908028</v>
       </c>
       <c r="B2" s="0">
-        <v>0.072963342000882392</v>
+        <v>0.079457528819443013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.023264169750820685</v>
+        <v>-0.029759923704434144</v>
       </c>
       <c r="B3" s="0">
-        <v>0.023155720479564934</v>
+        <v>0.029552791897557995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.015155720579372201</v>
+        <v>-0.021552791990261611</v>
       </c>
       <c r="B4" s="0">
-        <v>0.014720718199695781</v>
+        <v>0.021266740098390358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.011720718244878192</v>
+        <v>-0.018266740141115179</v>
       </c>
       <c r="B5" s="0">
-        <v>0.010232208370249296</v>
+        <v>0.017303403014439667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0040540008088800761</v>
+        <v>-0.0031977937289067171</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0043761833084712265</v>
+        <v>0.0031024489263415944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.014376183180775826</v>
+        <v>0.0068975509544078051</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.014452641173234415</v>
+        <v>-0.006910435981331009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.024452641047593815</v>
+        <v>0.01691043586282337</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.024599140959967514</v>
+        <v>-0.016927540112898765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.026599140929951304</v>
+        <v>0.018927540079706429</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.026723741645591659</v>
+        <v>-0.018944560957309786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.028723741621488941</v>
+        <v>0.020944560927338429</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.028730697368894553</v>
+        <v>-0.020944348028214321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013931712520469652</v>
+        <v>0.023944347988084758</v>
       </c>
       <c r="B11" s="0">
-        <v>0.013931555944719065</v>
+        <v>-0.023948043915844153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.010431555986063934</v>
+        <v>0.0042518052876063805</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010421822063263253</v>
+        <v>-0.0046627083121584256</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0069218221081301934</v>
+        <v>0.0081627082696575926</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0069151673818703685</v>
+        <v>-0.0083782784103982877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0010848325217782673</v>
+        <v>0.01637827832243044</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0011013147828879966</v>
+        <v>-0.016492983526845251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0021013147654338482</v>
+        <v>0.017492983512977567</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0021298830146445624</v>
+        <v>-0.017590908327328236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0041298829861133868</v>
+        <v>-0.0060326954680678391</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0042669260708323442</v>
+        <v>0.0060029868003113052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0062669260432652862</v>
+        <v>-0.0040029868234912058</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0063293421989918386</v>
+        <v>0.0039999999557762678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016099873837031708</v>
+        <v>-0.0028167678033987897</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090071601190914</v>
+        <v>0.0028065338939669005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090071647100853</v>
+        <v>0.0011934660638703853</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015437289021769</v>
+        <v>-0.0012660199773524283</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080154373390968203</v>
+        <v>-0.008015651452087269</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080054648259650918</v>
+        <v>0.0080054819471708782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040054648766716383</v>
+        <v>-0.0040054819900445793</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999488831151</v>
+        <v>0.0039999999567061906</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045699172302917646</v>
+        <v>-0.045697605164237487</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490185819152984</v>
+        <v>0.045489050701565503</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490185887602337</v>
+        <v>-0.04048905076448861</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097068880838194</v>
+        <v>0.040096849119257705</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097069126444822</v>
+        <v>-0.020096849344415801</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999750688779</v>
+        <v>0.01999999977139133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.012286209216677335</v>
+        <v>-0.012105609321917399</v>
       </c>
       <c r="B25" s="0">
-        <v>0.012241572822444979</v>
+        <v>0.012055164227996684</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0097415728659342449</v>
+        <v>-0.0095551642700151262</v>
       </c>
       <c r="B26" s="0">
-        <v>0.009685929971880114</v>
+        <v>0.0094917950832353881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0071859300161065676</v>
+        <v>-0.0069917951257858491</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0068656885051603389</v>
+        <v>0.0066269463603991774</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0048656885466744626</v>
+        <v>-0.0046269464001573724</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0046648695427533582</v>
+        <v>0.0043951459094362377</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0023351303580838589</v>
+        <v>0.0026048539980525476</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0023833735844025483</v>
+        <v>-0.0026626771880904343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.062383372888103583</v>
+        <v>0.062662676548924434</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.062703359806501879</v>
+        <v>-0.063006394434057089</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.069703359721538405</v>
+        <v>0.0082523284431434973</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.06982468522151386</v>
+        <v>-0.0082815643817895079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008566670124424</v>
+        <v>-0.0040008856209752253</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999953189004</v>
+        <v>0.0039999999519508833</v>
       </c>
     </row>
   </sheetData>
